--- a/resultados_vial_gris.xlsx
+++ b/resultados_vial_gris.xlsx
@@ -531,7 +531,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="O2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -607,16 +607,16 @@
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>100</v>
       </c>
       <c r="O3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -656,10 +656,10 @@
         <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>100</v>
@@ -668,7 +668,7 @@
         <v>100</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +681,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>100</v>
@@ -708,19 +708,19 @@
         <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>100</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -739,10 +739,10 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -757,22 +757,22 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -788,13 +788,13 @@
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -809,16 +809,16 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -861,19 +861,19 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>100</v>
@@ -889,16 +889,16 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>100</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>100</v>
@@ -941,7 +941,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
@@ -950,7 +950,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>100</v>
@@ -965,16 +965,16 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
@@ -1020,16 +1020,16 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>100</v>
@@ -1048,7 +1048,7 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -1066,25 +1066,25 @@
         <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1121,19 +1121,19 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>100</v>
@@ -1146,22 +1146,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1173,19 +1173,19 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>100</v>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
@@ -1225,19 +1225,19 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>100</v>
@@ -1256,7 +1256,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
@@ -1283,16 +1283,16 @@
         <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1308,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
@@ -1335,13 +1335,13 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
@@ -1387,16 +1387,16 @@
         <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1409,7 +1409,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>100</v>
@@ -1436,16 +1436,16 @@
         <v>100</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>100</v>
@@ -1488,16 +1488,16 @@
         <v>100</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>100</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>100</v>
@@ -1540,19 +1540,19 @@
         <v>100</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>100</v>
@@ -1592,19 +1592,19 @@
         <v>100</v>
       </c>
       <c r="L22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>100</v>
@@ -1644,19 +1644,19 @@
         <v>100</v>
       </c>
       <c r="L23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1693,22 +1693,22 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1745,22 +1745,22 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
@@ -1800,19 +1800,19 @@
         <v>100</v>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
@@ -1852,19 +1852,19 @@
         <v>100</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1874,13 +1874,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1901,19 +1901,19 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>100</v>
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>100</v>
@@ -1953,22 +1953,22 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1981,7 +1981,7 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>100</v>
@@ -2008,19 +2008,19 @@
         <v>100</v>
       </c>
       <c r="L30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>100</v>
@@ -2042,13 +2042,13 @@
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>100</v>
@@ -2060,19 +2060,19 @@
         <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
